--- a/examples/reports/ru-ru/Purchasers.xlsx
+++ b/examples/reports/ru-ru/Purchasers.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20399"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bidzaar\src\etplight\backend\services\reportgenerator\src\Cognitive.ReportGenerator\Templates\ru-ru\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23177DF-5441-4F17-9A59-205FE96CEC75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26115" windowHeight="13380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26112" windowHeight="13380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,17 +64,17 @@
     <t>Сумма заказов, $.Currency</t>
   </si>
   <si>
-    <t>Документ сформирован сервисом $.BrandName в $.Now, время в документе указано в часовом поясе $.Tz</t>
-  </si>
-  <si>
     <t>Отчетный период</t>
+  </si>
+  <si>
+    <t>Сформировано $.BrandName в $.Now, время в документе указано в часовом поясе $.Tz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -108,6 +114,12 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -228,6 +240,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -572,31 +587,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.796875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="35.77734375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="38.53125" customWidth="1"/>
-    <col min="2" max="2" width="28.1328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.1328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.1328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="28.1328125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="38.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="23.25">
+    <row r="1" spans="1:24" ht="23.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
+      <c r="A2" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -621,7 +636,7 @@
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>3</v>
@@ -653,7 +668,7 @@
       <c r="W6" s="30"/>
       <c r="X6" s="30"/>
     </row>
-    <row r="7" spans="1:24" s="2" customFormat="1">
+    <row r="7" spans="1:24" s="2" customFormat="1" ht="31.2">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -689,7 +704,7 @@
       <c r="W7" s="24"/>
       <c r="X7" s="24"/>
     </row>
-    <row r="8" spans="1:24" ht="14.25">
+    <row r="8" spans="1:24" ht="14.4">
       <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
